--- a/Controles_Diagramas_Figma/Controles/Cronograma.xlsx
+++ b/Controles_Diagramas_Figma/Controles/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\OneDrive\Documentos\Page_Suporte\Page_Suporte\Controles_Diagramas_Figma\Controles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\Documents\GitHub\MercadoUni\Controles_Diagramas_Figma\Controles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7173D7-924F-4400-B93E-E1BA1AA79982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC9E508-64AA-4E92-AF23-00C6C1DE49E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{E15141F4-FCED-4DF0-BDC7-962492EF0BA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E15141F4-FCED-4DF0-BDC7-962492EF0BA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CRONOGRAMA</t>
   </si>
@@ -78,6 +78,11 @@
 *Enviado dados do Github para  autorização no repositório. 
 *Alex 10/04 Iniciado e finalizado desenvolvimento das páginas PageSup2 e HomePage
 *Próxima reunião dia 14/04/2022 já com os códigos </t>
+  </si>
+  <si>
+    <t>* Presença somente de dois membros, Alex e Guilherme Araujo. 
+* Discutido melhor no código da pagina no qual Guilherme é responsável e implatado no código.
+*Definido linkar uma página na outra</t>
   </si>
 </sst>
 </file>
@@ -479,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F26EDC0-A5D2-4BC6-85C8-F153CE375B8A}">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:H28"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1176,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -1180,8 +1185,113 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
     </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>44665</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B83:H93"/>
     <mergeCell ref="G1:N3"/>
     <mergeCell ref="B4:H8"/>
     <mergeCell ref="B21:H28"/>

--- a/Controles_Diagramas_Figma/Controles/Cronograma.xlsx
+++ b/Controles_Diagramas_Figma/Controles/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\Documents\GitHub\MercadoUni\Controles_Diagramas_Figma\Controles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC9E508-64AA-4E92-AF23-00C6C1DE49E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D772E7-9B62-4276-AF94-95DE3D800D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E15141F4-FCED-4DF0-BDC7-962492EF0BA4}"/>
   </bookViews>
@@ -82,7 +82,9 @@
   <si>
     <t>* Presença somente de dois membros, Alex e Guilherme Araujo. 
 * Discutido melhor no código da pagina no qual Guilherme é responsável e implatado no código.
-*Definido linkar uma página na outra</t>
+*Definido linkar uma página na outra
+*Guilherme vai desenvolver as paginas de produto e pagina do carrinho
+*Iago irá linkar as paginas PageSup1 e PageSup2 que são as que estão finalizadas até o momento á página principal HomePage</t>
   </si>
 </sst>
 </file>
@@ -487,7 +489,7 @@
   <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Controles_Diagramas_Figma/Controles/Cronograma.xlsx
+++ b/Controles_Diagramas_Figma/Controles/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\Documents\GitHub\MercadoUni\Controles_Diagramas_Figma\Controles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D772E7-9B62-4276-AF94-95DE3D800D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046AAD3-79DD-42E3-B436-DF8FD8523FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E15141F4-FCED-4DF0-BDC7-962492EF0BA4}"/>
   </bookViews>
@@ -84,7 +84,8 @@
 * Discutido melhor no código da pagina no qual Guilherme é responsável e implatado no código.
 *Definido linkar uma página na outra
 *Guilherme vai desenvolver as paginas de produto e pagina do carrinho
-*Iago irá linkar as paginas PageSup1 e PageSup2 que são as que estão finalizadas até o momento á página principal HomePage</t>
+*Iago irá linkar as paginas PageSup1 e PageSup2 que são as que estão finalizadas até o momento á página principal HomePage
+*Nova reunião 21/04 para consolidação dos códigos e delegar qual nova tarefa para os próximos passos.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +490,7 @@
   <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Controles_Diagramas_Figma/Controles/Cronograma.xlsx
+++ b/Controles_Diagramas_Figma/Controles/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\Documents\GitHub\MercadoUni\Controles_Diagramas_Figma\Controles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046AAD3-79DD-42E3-B436-DF8FD8523FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECAAFC-8BAA-481F-88F0-1221C8914CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E15141F4-FCED-4DF0-BDC7-962492EF0BA4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>CRONOGRAMA</t>
   </si>
@@ -86,6 +86,11 @@
 *Guilherme vai desenvolver as paginas de produto e pagina do carrinho
 *Iago irá linkar as paginas PageSup1 e PageSup2 que são as que estão finalizadas até o momento á página principal HomePage
 *Nova reunião 21/04 para consolidação dos códigos e delegar qual nova tarefa para os próximos passos.</t>
+  </si>
+  <si>
+    <t>* Realizado reunião para decidir status do projeto.
+*Definido data de finalização e preenchimento da documentação até 12/05 e entrega para availiação
+*Alex e Iago, realizado link das paginas derivadas da Home Page, ligando cada uma ao botão adequado de acordo com a função de cada.</t>
   </si>
 </sst>
 </file>
@@ -487,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F26EDC0-A5D2-4BC6-85C8-F153CE375B8A}">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95:H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,8 +1297,113 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B95:H105"/>
     <mergeCell ref="B83:H93"/>
     <mergeCell ref="G1:N3"/>
     <mergeCell ref="B4:H8"/>
